--- a/黑色/玻璃/eta/纯碱开工率Non-Seasonal_合并数据.xlsx
+++ b/黑色/玻璃/eta/纯碱开工率Non-Seasonal_合并数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>87.5</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>87.7</v>
+        <v>83.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>86.3</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>93</v>
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>93.2</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>93.5</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="8">
